--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\ebusiness.old\20191114\media\eb_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37CD1E9-DFD5-4060-B670-9446D07C4EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40B4C5-1876-4758-B4EE-C144B104CF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="696" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="828" windowWidth="16896" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>作業報告書査収による毎月末締め、翌々月15日に現金振込</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>① 時間単位30分。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -249,6 +245,10 @@
     <t>③ 請求はWisdom Technologyからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>作業報告書査収による毎月末締め、翌々月{$PAYMENT_DAY$}日に現金振込</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +258,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -294,7 +294,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -332,7 +332,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -673,7 +673,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,9 +980,11 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -1004,17 +1006,17 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="6"/>
       <c r="F6" s="36" t="s">
         <v>2</v>
@@ -1039,9 +1041,9 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="19.8">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="F10" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1113,7 +1115,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1159,7 +1161,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1172,7 +1174,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1183,11 +1185,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1200,7 +1202,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1213,7 +1215,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1226,7 +1228,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1239,7 +1241,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1282,7 +1284,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -1295,7 +1297,7 @@
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="42" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -1308,7 +1310,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1321,7 +1323,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1332,11 +1334,11 @@
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1349,7 +1351,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1362,7 +1364,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1375,7 +1377,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1388,7 +1390,7 @@
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -1399,7 +1401,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -1472,7 +1474,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>
